--- a/tests/testthat/Non_opioids_long.xlsx
+++ b/tests/testthat/Non_opioids_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uol.le.ac.uk\root\staff\home\t\tm428\My Documents\Leicester Health Sciences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05DC239-C176-4F2D-B9EE-B5F766CCFE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4731E6D6-355B-4A05-B166-A83350B1F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -40,10 +40,10 @@
     <t>covar.age</t>
   </si>
   <si>
-    <t>Glucocorticoids</t>
+    <t>Placebo</t>
   </si>
   <si>
-    <t>Placebo</t>
+    <t>Glucocorticoids</t>
   </si>
   <si>
     <t>Ketamine</t>
@@ -924,13 +924,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -944,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>45</v>
@@ -967,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>75.5</v>
@@ -987,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>75.5</v>
@@ -1007,10 +1007,10 @@
         <v>1.4</v>
       </c>
       <c r="D6">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E6">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>71.3</v>
@@ -1027,10 +1027,10 @@
         <v>1.4</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>71.3</v>
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>54.5</v>
@@ -1064,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>54.5</v>
@@ -1081,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="D10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>56</v>
@@ -1101,16 +1101,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>56</v>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>64.5</v>
@@ -1181,16 +1181,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>64.5</v>
@@ -1201,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>60.2</v>
@@ -1221,16 +1221,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>60.2</v>
@@ -1241,16 +1241,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="E18">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>66.5</v>
@@ -1261,16 +1261,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>66.5</v>
@@ -1281,16 +1281,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>60</v>
@@ -1301,16 +1301,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1321,16 +1321,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>55.3</v>
@@ -1341,16 +1341,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>55.3</v>
@@ -1361,16 +1361,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>49.5</v>
@@ -1381,16 +1381,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E25">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>49.5</v>
@@ -1401,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>38.5</v>
@@ -1421,16 +1421,16 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>38.5</v>
@@ -1441,16 +1441,16 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>68.8</v>
@@ -1461,16 +1461,16 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>4.4000000000000004</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>68.8</v>
@@ -1481,16 +1481,16 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F30">
         <v>64.8</v>
@@ -1501,16 +1501,16 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D31">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31">
         <v>64.8</v>
@@ -1521,16 +1521,16 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F32">
         <v>47.6</v>
@@ -1541,16 +1541,16 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D33">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>47.6</v>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>1.5</v>
       </c>
       <c r="E34">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>57</v>
@@ -1581,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>1.5</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F35">
         <v>57</v>
@@ -1601,13 +1601,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D36">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E36">
         <v>22</v>
@@ -1621,13 +1621,13 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>1.5</v>
-      </c>
-      <c r="D37">
-        <v>2.2000000000000002</v>
       </c>
       <c r="E37">
         <v>22</v>
@@ -1641,16 +1641,16 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D38">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>61.7</v>
@@ -1661,16 +1661,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>61.7</v>
@@ -1681,16 +1681,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E40">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>52.5</v>
@@ -1701,16 +1701,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D41">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>52.5</v>
@@ -1721,16 +1721,16 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D42">
         <v>0.7</v>
       </c>
       <c r="E42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>48.3</v>
@@ -1741,16 +1741,16 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>0.7</v>
       </c>
       <c r="E43">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>48.3</v>
@@ -1761,16 +1761,16 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>0.8</v>
       </c>
       <c r="D44">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>63.8</v>
@@ -1781,16 +1781,16 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>0.8</v>
       </c>
       <c r="D45">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>63.8</v>
@@ -1801,16 +1801,16 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D46">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>60.2</v>
@@ -1821,16 +1821,16 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D47">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <v>60.2</v>
@@ -1841,7 +1841,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0.7</v>
       </c>
       <c r="E48">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>60.2</v>
@@ -1861,7 +1861,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0.7</v>
       </c>
       <c r="E49">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F49">
         <v>60.2</v>
@@ -1881,13 +1881,13 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -1901,13 +1901,13 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -1921,16 +1921,16 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D52">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="E52">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F52">
         <v>41.5</v>
@@ -1941,16 +1941,16 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D53">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F53">
         <v>41.5</v>
@@ -1961,16 +1961,16 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D54">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>65</v>
@@ -1981,16 +1981,16 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="D55">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="E55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F55">
         <v>65</v>
@@ -2001,16 +2001,16 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>34.5</v>
@@ -2021,16 +2021,16 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>34.5</v>
@@ -2041,16 +2041,16 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="D58">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F58">
         <v>47.7</v>
@@ -2061,16 +2061,16 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="D59">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>47.7</v>
@@ -2081,13 +2081,13 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D60">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -2101,13 +2101,13 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="D61">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E61">
         <v>50</v>
@@ -2121,10 +2121,10 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D62">
         <v>0.1</v>
@@ -2141,10 +2141,10 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D63">
         <v>0.1</v>
@@ -2161,16 +2161,16 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F64">
         <v>24</v>
@@ -2181,16 +2181,16 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65">
         <v>24</v>
@@ -2201,16 +2201,16 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D66">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E66">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F66">
         <v>40</v>
@@ -2221,16 +2221,16 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D67">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E67">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F67">
         <v>40</v>
@@ -2241,16 +2241,16 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F68">
         <v>62.4</v>
@@ -2261,16 +2261,16 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="E69">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>62.4</v>
@@ -2281,16 +2281,16 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E70">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F70">
         <v>66.5</v>
@@ -2301,16 +2301,16 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
+        <v>1.8</v>
+      </c>
+      <c r="D71">
         <v>2</v>
       </c>
-      <c r="D71">
-        <v>2.5</v>
-      </c>
       <c r="E71">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F71">
         <v>66.5</v>
@@ -2321,13 +2321,13 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D72">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -2341,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D73">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -2361,16 +2361,16 @@
         <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F74">
         <v>43.5</v>
@@ -2381,16 +2381,16 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75">
+        <v>1.5</v>
+      </c>
+      <c r="D75">
         <v>1.9</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
       <c r="E75">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F75">
         <v>43.5</v>
@@ -2401,16 +2401,16 @@
         <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="E76">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76">
         <v>50.5</v>
@@ -2421,16 +2421,16 @@
         <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E77">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F77">
         <v>50.5</v>
@@ -2441,16 +2441,16 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E78">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F78">
         <v>67.099999999999994</v>
@@ -2461,16 +2461,16 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F79">
         <v>67.099999999999994</v>
@@ -2481,16 +2481,16 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D80">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F80">
         <v>39.1</v>
@@ -2501,16 +2501,16 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F81">
         <v>39.1</v>
@@ -2521,16 +2521,16 @@
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D82">
         <v>1.5</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F82">
         <v>70.3</v>
@@ -2541,16 +2541,16 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1.5</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F83">
         <v>70.3</v>
@@ -2561,7 +2561,7 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D86">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="E86">
         <v>27</v>
@@ -2621,13 +2621,13 @@
         <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D87">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E87">
         <v>27</v>
@@ -2641,16 +2641,16 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="D88">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="E88">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F88">
         <v>43.1</v>
@@ -2661,16 +2661,16 @@
         <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="D89">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="E89">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F89">
         <v>43.1</v>
@@ -2681,16 +2681,16 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D90">
         <v>1.7</v>
       </c>
       <c r="E90">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F90">
         <v>62.9</v>
@@ -2701,16 +2701,16 @@
         <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D91">
         <v>1.7</v>
       </c>
       <c r="E91">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F91">
         <v>62.9</v>
